--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.4825</v>
+        <v>5.504999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.79760000000001</v>
+        <v>-21.7984</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.404899999999997</v>
+        <v>5.402099999999995</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.0684</v>
+        <v>6.1629</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.23360000000001</v>
+        <v>-22.18850000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.39929999999999</v>
+        <v>-19.29319999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.249500000000005</v>
+        <v>3.832100000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.70239999999997</v>
+        <v>-21.72569999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>4.980400000000006</v>
+        <v>5.017600000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.947899999999998</v>
+        <v>5.069399999999996</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.03049999999999</v>
+        <v>-18.94509999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.811400000000006</v>
+        <v>8.592100000000006</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.393200000000002</v>
+        <v>4.2193</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.881300000000005</v>
+        <v>5.804500000000002</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.5851</v>
+        <v>5.379999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.738199999999996</v>
+        <v>5.211899999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6827</v>
+        <v>-21.6999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.409699999999996</v>
+        <v>5.425099999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.4135</v>
+        <v>7.344400000000006</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.76759999999999</v>
+        <v>-19.55009999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.82279999999998</v>
+        <v>-19.79279999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.702300000000004</v>
+        <v>5.767</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.95700000000001</v>
+        <v>-21.9186</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.7771</v>
+        <v>-21.71069999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.582100000000001</v>
+        <v>5.543000000000004</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.68039999999998</v>
+        <v>-20.80259999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.474800000000005</v>
+        <v>8.434000000000006</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
